--- a/src/test/resources/DataDriven.xlsx
+++ b/src/test/resources/DataDriven.xlsx
@@ -357,7 +357,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
